--- a/biology/Médecine/Samia_al-Amoudi/Samia_al-Amoudi.xlsx
+++ b/biology/Médecine/Samia_al-Amoudi/Samia_al-Amoudi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Samia al-Amoudi est une gynécologue obstétricienne saoudienne et l'ex vice-doyenne du collège de médecine et des sciences de l'université du roi Abdulaziz à Djeddah[1],[2]. Elle dirige un centre d'excellence sur le cancer du sein.  Elle est surtout connue pour son travail de sensibilisation des femmes au cancer du sein après s'être diagnostiquée elle-même. Elle est également la première femme du Conseil de coopération du Golfe à avoir un siège au conseil de l'Union pour le contrôle international du cancer[3].
-Elle reçoit, le 7 mars 2007, du département d’État américain, le 1er prix international de la femme de courage[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Samia al-Amoudi est une gynécologue obstétricienne saoudienne et l'ex vice-doyenne du collège de médecine et des sciences de l'université du roi Abdulaziz à Djeddah,. Elle dirige un centre d'excellence sur le cancer du sein.  Elle est surtout connue pour son travail de sensibilisation des femmes au cancer du sein après s'être diagnostiquée elle-même. Elle est également la première femme du Conseil de coopération du Golfe à avoir un siège au conseil de l'Union pour le contrôle international du cancer.
+Elle reçoit, le 7 mars 2007, du département d’État américain, le 1er prix international de la femme de courage,.
 </t>
         </is>
       </c>
